--- a/AASProductTestTools/target/classes/AASProductTestCase/AASProductTest/qa/testdata/ExtraPTPositiveData.xlsx
+++ b/AASProductTestTools/target/classes/AASProductTestCase/AASProductTest/qa/testdata/ExtraPTPositiveData.xlsx
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -521,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -532,7 +532,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
